--- a/data/wdw/WDW 1952 Table II.xlsx
+++ b/data/wdw/WDW 1952 Table II.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wandell/Documents/MATLAB/isetprojects/isetfundamentals/data/wdw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213AB684-C98C-6F45-83A1-4F7D64D7E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Wavelength in μ</t>
   </si>
@@ -53,38 +62,90 @@
   </si>
   <si>
     <t>Vr/Vg=1.278</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wright, W. D. 1952. “The Characteristics of Tritanopia.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of the Optical Society of America</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 42 (8): 509–21.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Archivo"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Archivo"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -94,50 +155,73 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFDDDDDD"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -327,695 +411,708 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
         <v>0.41</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.982</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.296</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.704</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.959</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.335</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B6" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.624</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
         <v>0.42</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2">
         <v>0.187</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C7" s="2">
         <v>0.19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D7" s="2">
         <v>0.81</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E7" s="2">
         <v>1.538</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.355</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.183</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+      <c r="F7" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
         <v>0.43</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.319</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.101</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.899</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.084</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.261</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.822</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
+      <c r="B8" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.8220000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
         <v>0.44</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.404</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.027</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.973</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.535</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.088</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.447</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
+      <c r="B9" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.4470000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
         <v>0.45</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="2">
         <v>0.441</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.021</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.761</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D10" s="2">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G10" s="2">
         <v>2.835</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
         <v>0.46</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.573</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B11" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>1.039</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.741</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.7410000000000001</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>3.931</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
         <v>0.47</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.826</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D12" s="2">
         <v>1.028</v>
       </c>
-      <c r="E9" s="2">
-        <v>6.699</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E12" s="2">
+        <v>6.6989999999999998</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
-        <v>6.942</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
+      <c r="G12" s="2">
+        <v>6.9420000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
         <v>0.48</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.978</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9.506</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.506</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
+      <c r="B13" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.5060000000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9.5060000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
         <v>0.49</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B14" s="2">
         <v>1.099</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.036</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.964</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C14" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E14" s="2">
         <v>12.56</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.572</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F14" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G14" s="2">
         <v>11.99</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
         <v>0.5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B15" s="2">
         <v>1.347</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.072</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.928</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C15" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E15" s="2">
         <v>22.23</v>
       </c>
-      <c r="F12" s="2">
-        <v>2.005</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F15" s="2">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G15" s="2">
         <v>20.22</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
         <v>0.51</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B16" s="2">
         <v>1.605</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C16" s="2">
         <v>0.109</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.891</v>
-      </c>
-      <c r="E13" s="2">
-        <v>40.27</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5.435</v>
-      </c>
-      <c r="G13" s="2">
-        <v>34.84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
+      <c r="D16" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="G16" s="2">
+        <v>34.840000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
         <v>0.52</v>
       </c>
-      <c r="B14" s="2">
-        <v>1.818</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.144</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.856</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="B17" s="2">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E17" s="2">
         <v>65.77</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F17" s="2">
         <v>11.64</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G17" s="2">
         <v>54.13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
         <v>0.53</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B18" s="2">
         <v>1.921</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C18" s="2">
         <v>0.182</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.818</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D18" s="2">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E18" s="2">
         <v>83.37</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F18" s="2">
         <v>18.48</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G18" s="2">
         <v>64.88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
         <v>0.54</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B19" s="2">
         <v>1.974</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.226</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.774</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C19" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E19" s="2">
         <v>94.19</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19" s="2">
         <v>25.61</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G19" s="2">
         <v>68.58</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>0.55</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B20" s="2">
         <v>1.996</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.273</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.727</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C20" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E20" s="2">
         <v>99.08</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="2">
         <v>32.14</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G20" s="2">
         <v>66.94</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>0.56</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B21" s="2">
         <v>1.996</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.331</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.669</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C21" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E21" s="2">
         <v>99.08</v>
       </c>
-      <c r="F18" s="2">
-        <v>38.38</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F21" s="2">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="G21" s="2">
         <v>60.7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>0.57</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B22" s="2">
         <v>1.982</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.385</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.615</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C22" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E22" s="2">
         <v>95.94</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F22" s="2">
         <v>42.64</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G22" s="2">
         <v>53.3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>0.58</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B23" s="2">
         <v>1.95</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C23" s="2">
         <v>0.47</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="2">
         <v>0.53</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E23" s="2">
         <v>89.13</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="2">
         <v>47.36</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G23" s="2">
         <v>41.77</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
         <v>0.59</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B24" s="2">
         <v>1.905</v>
       </c>
-      <c r="C21" s="2">
-        <v>0.571</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.429</v>
-      </c>
-      <c r="E21" s="2">
-        <v>80.35</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="C24" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="F24" s="2">
         <v>50.61</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G24" s="2">
         <v>29.74</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="2">
         <v>0.6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B25" s="2">
         <v>1.843</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.674</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.326</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C25" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E25" s="2">
         <v>69.66</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F25" s="2">
         <v>50.53</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G25" s="2">
         <v>19.13</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
         <v>0.61</v>
       </c>
-      <c r="B23" s="2">
-        <v>1.757</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.772</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.228</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="B26" s="2">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E26" s="2">
         <v>57.15</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F26" s="2">
         <v>46.43</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G26" s="2">
         <v>10.73</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
         <v>0.62</v>
       </c>
-      <c r="B24" s="2">
-        <v>1.618</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.862</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.138</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B27" s="2">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E27" s="2">
         <v>41.5</v>
       </c>
-      <c r="F24" s="2">
-        <v>36.88</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4.619</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
+      <c r="F27" s="2">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.6189999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
         <v>0.63</v>
       </c>
-      <c r="B25" s="2">
-        <v>1.408</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.928</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.072</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="B28" s="2">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E28" s="2">
         <v>25.59</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F28" s="2">
         <v>24.12</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G28" s="2">
         <v>1.464</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
         <v>0.64</v>
       </c>
-      <c r="B26" s="2">
-        <v>1.182</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.974</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.026</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="B29" s="2">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E29" s="2">
         <v>15.21</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F29" s="2">
         <v>14.9</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G29" s="2">
         <v>0.311</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
         <v>0.65</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.959</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>9.099</v>
-      </c>
-      <c r="F27" s="2">
-        <v>9.098</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
+      <c r="B30" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9.0990000000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9.0980000000000008</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
         <v>0.66</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.715</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2">
-        <v>5.188</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
+      <c r="B31" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
         <v>0.67</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B32" s="2">
         <v>0.434</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2">
-        <v>2.716</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
         <v>0.68</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.147</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2">
+      <c r="B33" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>1.403</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>0.5825</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="4">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2">
         <v>0.5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D34" s="2">
         <v>0.5</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>